--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dingc\Desktop\Academic\112-1\Optimization\Optimization-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E799E-D16C-4BCE-8AB4-B77282978F4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB457485-43CA-44C7-A5D2-5C1A699A7B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4989" activeTab="1" xr2:uid="{EEF0B2DA-8F61-413C-9EC6-76AAD3331EB0}"/>
   </bookViews>
